--- a/regions/8/soflis meurneoba/3. pirutkvis suladoba.xlsx
+++ b/regions/8/soflis meurneoba/3. pirutkvis suladoba.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ITSIKHELASHVILI\ENV_Shared\რეგიონული სტატისტიკის პორტალი\ქვემო ქართლი\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsmelashvili\Desktop\რეგიონული სტატისტიკის პორტალი_2023\ქვემო ქართლი\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23201C5-E743-4089-A437-EEA422A60AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0.0"/>
   </numFmts>
@@ -173,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,15 +190,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -231,16 +221,16 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,23 +321,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -383,23 +356,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -589,28 +545,30 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="30" customHeight="1">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>2006</v>
@@ -660,8 +618,14 @@
       <c r="Q2" s="3">
         <v>2021</v>
       </c>
+      <c r="R2" s="3">
+        <v>2022</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -713,8 +677,14 @@
       <c r="Q3" s="6">
         <v>165.8</v>
       </c>
+      <c r="R3" s="6">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="S3" s="6">
+        <v>141</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -766,8 +736,14 @@
       <c r="Q4" s="6">
         <v>79.5</v>
       </c>
+      <c r="R4" s="6">
+        <v>75.5</v>
+      </c>
+      <c r="S4" s="6">
+        <v>65.599999999999994</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -819,8 +795,14 @@
       <c r="Q5" s="6">
         <v>22.3</v>
       </c>
+      <c r="R5" s="6">
+        <v>24</v>
+      </c>
+      <c r="S5" s="6">
+        <v>24.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -872,8 +854,14 @@
       <c r="Q6" s="6">
         <v>3.9</v>
       </c>
+      <c r="R6" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="S6" s="6">
+        <v>5.0999999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -925,8 +913,14 @@
       <c r="Q7" s="6">
         <v>203.7</v>
       </c>
+      <c r="R7" s="6">
+        <v>206.4</v>
+      </c>
+      <c r="S7" s="6">
+        <v>212.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+    <row r="8" spans="1:19" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -978,8 +972,14 @@
       <c r="Q8" s="6">
         <v>156.6</v>
       </c>
+      <c r="R8" s="6">
+        <v>159</v>
+      </c>
+      <c r="S8" s="6">
+        <v>165</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+    <row r="9" spans="1:19" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1031,8 +1031,14 @@
       <c r="Q9" s="6">
         <v>6.6</v>
       </c>
+      <c r="R9" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="S9" s="6">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:19" ht="15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1084,8 +1090,14 @@
       <c r="Q10" s="6">
         <v>4.7</v>
       </c>
+      <c r="R10" s="6">
+        <v>5</v>
+      </c>
+      <c r="S10" s="6">
+        <v>5.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+    <row r="11" spans="1:19" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1137,8 +1149,14 @@
       <c r="Q11" s="6">
         <v>3960.2</v>
       </c>
+      <c r="R11" s="6">
+        <v>3738.9</v>
+      </c>
+      <c r="S11" s="6">
+        <v>2565.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:19" ht="15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1190,32 +1208,38 @@
       <c r="Q12" s="6">
         <v>24.1</v>
       </c>
+      <c r="R12" s="6">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S12" s="6">
+        <v>14.1</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:19" s="5" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A13:Q13"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
